--- a/Documentos/Metas.xlsx
+++ b/Documentos/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -785,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
       </c>
       <c r="F9" s="3">
         <f>SUM(B2:B80)</f>
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.67399080224833929</v>
+        <v>0.66717248356095094</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>8</v>

--- a/Documentos/Metas.xlsx
+++ b/Documentos/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Restante pro item</t>
+  </si>
+  <si>
+    <t>Orientada a Objeto detalhada e com Filtros rever modelagem</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +713,7 @@
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -779,10 +782,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -790,10 +793,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -801,127 +804,130 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <f>SUM(B2:B80)</f>
-        <v>1977</v>
-      </c>
-      <c r="G9" s="4">
+        <v>2037</v>
+      </c>
+      <c r="G10" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10">
-        <f>(G9/F9)*100%</f>
-        <v>0.66717248356095094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="10">
+        <f>(G10/F10)*100%</f>
+        <v>0.66715758468335784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="9">
-        <f>(G9*20)/60</f>
-        <v>439.66666666666669</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F14" s="9">
+        <f>(G10*20)/60</f>
+        <v>453</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -929,32 +935,32 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>40</v>
       </c>
       <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
       <c r="C18">
         <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>40</v>
@@ -965,65 +971,65 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1045,24 +1051,24 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documentos/Metas.xlsx
+++ b/Documentos/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Orientada a Objeto detalhada e com Filtros rever modelagem</t>
+  </si>
+  <si>
+    <t>Trigger direto no banco</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +744,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -777,7 +780,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,11 +845,11 @@
       </c>
       <c r="F10" s="3">
         <f>SUM(B2:B80)</f>
-        <v>2037</v>
+        <v>2111</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1359</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +879,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="10">
         <f>(G10/F10)*100%</f>
-        <v>0.66715758468335784</v>
+        <v>0.69208905731880621</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
       </c>
       <c r="F14" s="9">
         <f>(G10*20)/60</f>
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>76</v>
@@ -1054,10 +1057,10 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,13 +1112,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1137,18 +1140,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1169,8 +1172,11 @@
       <c r="C37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1296,10 +1302,10 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentos/Metas.xlsx
+++ b/Documentos/Metas.xlsx
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
       </c>
       <c r="G10" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1461</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="10">
         <f>(G10/F10)*100%</f>
-        <v>0.69208905731880621</v>
+        <v>0.6840360018948366</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
       </c>
       <c r="F14" s="9">
         <f>(G10*20)/60</f>
-        <v>487</v>
+        <v>481.33333333333331</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>76</v>
@@ -944,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
